--- a/Code/Results/Cases/Case_2_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_187/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.31369951791336</v>
+        <v>10.12852665559538</v>
       </c>
       <c r="C2">
-        <v>11.90692716911353</v>
+        <v>8.110879165973371</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.95062426951792</v>
+        <v>23.28269436308833</v>
       </c>
       <c r="F2">
-        <v>28.72866218423398</v>
+        <v>36.52196271966533</v>
       </c>
       <c r="G2">
-        <v>16.97260344706683</v>
+        <v>19.35828909065191</v>
       </c>
       <c r="H2">
-        <v>7.032558958837982</v>
+        <v>11.85533369209589</v>
       </c>
       <c r="I2">
-        <v>9.662953912255045</v>
+        <v>16.55605497724123</v>
       </c>
       <c r="J2">
-        <v>4.345252036450361</v>
+        <v>7.285453413798845</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.00738137188172</v>
+        <v>18.5965221777066</v>
       </c>
       <c r="N2">
-        <v>11.55392365829343</v>
+        <v>16.44604009235571</v>
       </c>
       <c r="O2">
-        <v>11.02244791902695</v>
+        <v>16.78810679960771</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.25825244031455</v>
+        <v>9.539272179910361</v>
       </c>
       <c r="C3">
-        <v>11.28037790161933</v>
+        <v>7.809056561021271</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.39651054444071</v>
+        <v>23.25007201181097</v>
       </c>
       <c r="F3">
-        <v>27.68178204870124</v>
+        <v>36.45209059074492</v>
       </c>
       <c r="G3">
-        <v>16.32755912617642</v>
+        <v>19.32894353661445</v>
       </c>
       <c r="H3">
-        <v>7.057488282622665</v>
+        <v>11.8948484608195</v>
       </c>
       <c r="I3">
-        <v>9.852119262497194</v>
+        <v>16.649200368167</v>
       </c>
       <c r="J3">
-        <v>4.376060388695549</v>
+        <v>7.296801695172481</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.08705364798429</v>
+        <v>18.39985805283274</v>
       </c>
       <c r="N3">
-        <v>11.62270465260327</v>
+        <v>16.47866047993556</v>
       </c>
       <c r="O3">
-        <v>10.921565582652</v>
+        <v>16.83985221119672</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.57328170427542</v>
+        <v>9.156458652415964</v>
       </c>
       <c r="C4">
-        <v>10.87682411974376</v>
+        <v>7.616458609050131</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.05818137362541</v>
+        <v>23.23476389172599</v>
       </c>
       <c r="F4">
-        <v>27.04381559310144</v>
+        <v>36.41897273321174</v>
       </c>
       <c r="G4">
-        <v>15.94313029531841</v>
+        <v>19.31940662598353</v>
       </c>
       <c r="H4">
-        <v>7.078117751743044</v>
+        <v>11.92119185267974</v>
       </c>
       <c r="I4">
-        <v>9.977280147127724</v>
+        <v>16.70998376579892</v>
       </c>
       <c r="J4">
-        <v>4.395596803948129</v>
+        <v>7.30414494233784</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.49968261365985</v>
+        <v>18.2808831577797</v>
       </c>
       <c r="N4">
-        <v>11.66840792348181</v>
+        <v>16.50033622415592</v>
       </c>
       <c r="O4">
-        <v>10.87113387398586</v>
+        <v>16.87593288402915</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.28490735504691</v>
+        <v>8.995224807120984</v>
       </c>
       <c r="C5">
-        <v>10.70772936390211</v>
+        <v>7.536222902750048</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.92096680886563</v>
+        <v>23.22971748874903</v>
       </c>
       <c r="F5">
-        <v>26.7854233163336</v>
+        <v>36.40794642498118</v>
       </c>
       <c r="G5">
-        <v>15.78963125867317</v>
+        <v>19.31765289771135</v>
       </c>
       <c r="H5">
-        <v>7.087812012097965</v>
+        <v>11.93244996353665</v>
       </c>
       <c r="I5">
-        <v>10.03044545701026</v>
+        <v>16.73565641587494</v>
       </c>
       <c r="J5">
-        <v>4.403716040489337</v>
+        <v>7.307232014639789</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.25495734655318</v>
+        <v>18.23289475766023</v>
       </c>
       <c r="N5">
-        <v>11.68788793316649</v>
+        <v>16.509583996592</v>
       </c>
       <c r="O5">
-        <v>10.85339625454115</v>
+        <v>16.89171618579537</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.23646632297866</v>
+        <v>8.968137597798076</v>
       </c>
       <c r="C6">
-        <v>10.67937412101642</v>
+        <v>7.52279661344385</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.89822758132159</v>
+        <v>23.22895162802262</v>
       </c>
       <c r="F6">
-        <v>26.74262444431517</v>
+        <v>36.40626488689711</v>
       </c>
       <c r="G6">
-        <v>15.7643404519348</v>
+        <v>19.3174904383367</v>
       </c>
       <c r="H6">
-        <v>7.0894980333235</v>
+        <v>11.93435093940455</v>
       </c>
       <c r="I6">
-        <v>10.03940116411007</v>
+        <v>16.7399738677442</v>
       </c>
       <c r="J6">
-        <v>4.405073835467565</v>
+        <v>7.307750344079555</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.21400465067631</v>
+        <v>18.22495758741701</v>
       </c>
       <c r="N6">
-        <v>11.69117376063373</v>
+        <v>16.51114465025293</v>
       </c>
       <c r="O6">
-        <v>10.85061835256327</v>
+        <v>16.89440212710339</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.56942994447616</v>
+        <v>9.154305315797938</v>
       </c>
       <c r="C7">
-        <v>10.87456230565813</v>
+        <v>7.615383497737158</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.05632794359399</v>
+        <v>23.23469100361573</v>
       </c>
       <c r="F7">
-        <v>27.04032390254974</v>
+        <v>36.41881401938204</v>
       </c>
       <c r="G7">
-        <v>15.94104705514049</v>
+        <v>19.31937434193008</v>
       </c>
       <c r="H7">
-        <v>7.078243345102621</v>
+        <v>11.92134156652139</v>
       </c>
       <c r="I7">
-        <v>9.977988533995335</v>
+        <v>16.71032634054042</v>
       </c>
       <c r="J7">
-        <v>4.395705660400807</v>
+        <v>7.30418619214688</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.49640354409685</v>
+        <v>18.28023390335077</v>
       </c>
       <c r="N7">
-        <v>11.66866719571726</v>
+        <v>16.50045926274891</v>
       </c>
       <c r="O7">
-        <v>10.87088337851394</v>
+        <v>16.87614137429989</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.95746354874581</v>
+        <v>9.929737404303394</v>
       </c>
       <c r="C8">
-        <v>11.69485677050539</v>
+        <v>8.008366016982208</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.75927623207782</v>
+        <v>23.27046897117336</v>
       </c>
       <c r="F8">
-        <v>28.36691251255865</v>
+        <v>36.49584644942684</v>
       </c>
       <c r="G8">
-        <v>16.74791824267786</v>
+        <v>19.34641129557342</v>
       </c>
       <c r="H8">
-        <v>7.04001899290563</v>
+        <v>11.86852622482935</v>
       </c>
       <c r="I8">
-        <v>9.726241238874236</v>
+        <v>16.58742588048534</v>
       </c>
       <c r="J8">
-        <v>4.355747371668678</v>
+        <v>7.28928854867786</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.69480564739418</v>
+        <v>18.52837237048185</v>
       </c>
       <c r="N8">
-        <v>11.57690804954747</v>
+        <v>16.45694622308059</v>
       </c>
       <c r="O8">
-        <v>10.98522887748858</v>
+        <v>16.80505237554761</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.38551111051857</v>
+        <v>11.28212130982014</v>
       </c>
       <c r="C9">
-        <v>13.150660914355</v>
+        <v>8.718231060261594</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.14556638270225</v>
+        <v>23.37786960830764</v>
       </c>
       <c r="F9">
-        <v>30.99170341771199</v>
+        <v>36.72402033148292</v>
       </c>
       <c r="G9">
-        <v>18.41245708427131</v>
+        <v>19.46658787488217</v>
       </c>
       <c r="H9">
-        <v>7.009609476319099</v>
+        <v>11.78148450662344</v>
       </c>
       <c r="I9">
-        <v>9.309338627550233</v>
+        <v>16.37492887477651</v>
       </c>
       <c r="J9">
-        <v>4.28220854821488</v>
+        <v>7.263040998315907</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.85990081316785</v>
+        <v>19.02694192289891</v>
       </c>
       <c r="N9">
-        <v>11.42535017028793</v>
+        <v>16.38465439585552</v>
       </c>
       <c r="O9">
-        <v>11.3039307130895</v>
+        <v>16.69997713618702</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.99001054305138</v>
+        <v>12.17175888851046</v>
       </c>
       <c r="C10">
-        <v>14.12398282027335</v>
+        <v>9.199262715964151</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.16024358562989</v>
+        <v>23.47912141544105</v>
       </c>
       <c r="F10">
-        <v>32.91686951644763</v>
+        <v>36.93781652280997</v>
       </c>
       <c r="G10">
-        <v>19.67312129885756</v>
+        <v>19.59542989970362</v>
       </c>
       <c r="H10">
-        <v>7.017639487890843</v>
+        <v>11.72763286763046</v>
       </c>
       <c r="I10">
-        <v>9.057992832488992</v>
+        <v>16.23620423255962</v>
       </c>
       <c r="J10">
-        <v>4.230970768843893</v>
+        <v>7.245549171606218</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.50315837122096</v>
+        <v>19.39765371191558</v>
       </c>
       <c r="N10">
-        <v>11.33254598189935</v>
+        <v>16.33945101481651</v>
       </c>
       <c r="O10">
-        <v>11.59929335727177</v>
+        <v>16.64388908915617</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.68115838196701</v>
+        <v>12.55375391694052</v>
       </c>
       <c r="C11">
-        <v>14.54549524708212</v>
+        <v>9.408722036711927</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.61955338594541</v>
+        <v>23.52994079183672</v>
       </c>
       <c r="F11">
-        <v>33.78903397489745</v>
+        <v>37.0448671119212</v>
       </c>
       <c r="G11">
-        <v>20.25259694731672</v>
+        <v>19.66270045701077</v>
       </c>
       <c r="H11">
-        <v>7.028585964379079</v>
+        <v>11.70533151160394</v>
       </c>
       <c r="I11">
-        <v>8.95763652503255</v>
+        <v>16.17687706771032</v>
       </c>
       <c r="J11">
-        <v>4.208233488419091</v>
+        <v>7.237977384389456</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.23519640319052</v>
+        <v>19.56664490057135</v>
       </c>
       <c r="N11">
-        <v>11.29465215061244</v>
+        <v>16.32059630804969</v>
       </c>
       <c r="O11">
-        <v>11.74753849255453</v>
+        <v>16.6229916180407</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.93732931422129</v>
+        <v>12.69513396790445</v>
       </c>
       <c r="C12">
-        <v>14.7020368679067</v>
+        <v>9.4866525757077</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.79305854455819</v>
+        <v>23.54985968812476</v>
       </c>
       <c r="F12">
-        <v>34.1185905061368</v>
+        <v>37.08678917569388</v>
       </c>
       <c r="G12">
-        <v>20.47273891835223</v>
+        <v>19.68940232908012</v>
       </c>
       <c r="H12">
-        <v>7.033837543503411</v>
+        <v>11.6972027391014</v>
       </c>
       <c r="I12">
-        <v>8.921836975633353</v>
+        <v>16.15495551876274</v>
       </c>
       <c r="J12">
-        <v>4.199702695082789</v>
+        <v>7.23516529591295</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.50670955565444</v>
+        <v>19.63063726797895</v>
       </c>
       <c r="N12">
-        <v>11.28095140014013</v>
+        <v>16.3137015879443</v>
       </c>
       <c r="O12">
-        <v>11.80570726394862</v>
+        <v>16.61574466800701</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.88240484675209</v>
+        <v>12.66483090602735</v>
       </c>
       <c r="C13">
-        <v>14.66845984362051</v>
+        <v>9.46993111901763</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.75571138890648</v>
+        <v>23.54553995336791</v>
       </c>
       <c r="F13">
-        <v>34.04764899587217</v>
+        <v>37.07769934700514</v>
       </c>
       <c r="G13">
-        <v>20.42529811966192</v>
+        <v>19.68359729428377</v>
       </c>
       <c r="H13">
-        <v>7.032656398689499</v>
+        <v>11.69893934210593</v>
       </c>
       <c r="I13">
-        <v>8.92944581000671</v>
+        <v>16.1596524910436</v>
       </c>
       <c r="J13">
-        <v>4.201536472290453</v>
+        <v>7.235768478800725</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.44848637760993</v>
+        <v>19.61685622149109</v>
       </c>
       <c r="N13">
-        <v>11.28387279381294</v>
+        <v>16.31517559474603</v>
       </c>
       <c r="O13">
-        <v>11.79308873975035</v>
+        <v>16.61727574985672</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.70234484580647</v>
+        <v>12.5654509702307</v>
       </c>
       <c r="C14">
-        <v>14.55843574547429</v>
+        <v>9.415161441708051</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.63383678229696</v>
+        <v>23.53156606798358</v>
       </c>
       <c r="F14">
-        <v>33.81616205296022</v>
+        <v>37.04828846684964</v>
       </c>
       <c r="G14">
-        <v>20.270694774019</v>
+        <v>19.66487273484424</v>
       </c>
       <c r="H14">
-        <v>7.028995511613707</v>
+        <v>11.704656411422</v>
       </c>
       <c r="I14">
-        <v>8.954645954385125</v>
+        <v>16.17506265353592</v>
       </c>
       <c r="J14">
-        <v>4.207530081726114</v>
+        <v>7.237744927523333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.25764763648154</v>
+        <v>19.57190990265094</v>
       </c>
       <c r="N14">
-        <v>11.29351181634994</v>
+        <v>16.32002416520046</v>
       </c>
       <c r="O14">
-        <v>11.75228318091939</v>
+        <v>16.62238203664306</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.59133060229635</v>
+        <v>12.50415145466233</v>
       </c>
       <c r="C15">
-        <v>14.49064180998767</v>
+        <v>9.381431678450028</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.55912706267002</v>
+        <v>23.52309422332762</v>
       </c>
       <c r="F15">
-        <v>33.67427165216075</v>
+        <v>37.03045298300941</v>
       </c>
       <c r="G15">
-        <v>20.17608373680886</v>
+        <v>19.65356275800689</v>
       </c>
       <c r="H15">
-        <v>7.026898905299851</v>
+        <v>11.70819948283631</v>
       </c>
       <c r="I15">
-        <v>8.970374703708847</v>
+        <v>16.18457274248584</v>
       </c>
       <c r="J15">
-        <v>4.211211585132252</v>
+        <v>7.238962739179346</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.14001411782461</v>
+        <v>19.54437734482473</v>
       </c>
       <c r="N15">
-        <v>11.29950132816615</v>
+        <v>16.3230259642799</v>
       </c>
       <c r="O15">
-        <v>11.72755408751208</v>
+        <v>16.6255966486063</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.9440642728142</v>
+        <v>12.14633692828313</v>
       </c>
       <c r="C16">
-        <v>14.09600638728742</v>
+        <v>9.185382019075226</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.13017199467188</v>
+        <v>23.47589521204567</v>
       </c>
       <c r="F16">
-        <v>32.85978139041222</v>
+        <v>36.93101559063165</v>
       </c>
       <c r="G16">
-        <v>19.63535794125973</v>
+        <v>19.59120645419202</v>
       </c>
       <c r="H16">
-        <v>7.017075797123325</v>
+        <v>11.72913454474379</v>
       </c>
       <c r="I16">
-        <v>9.0648487804159</v>
+        <v>16.24015752762064</v>
       </c>
       <c r="J16">
-        <v>4.232467958895341</v>
+        <v>7.246051740104484</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.45451716396919</v>
+        <v>19.38661240450639</v>
       </c>
       <c r="N16">
-        <v>11.33511170700869</v>
+        <v>16.34071754830625</v>
       </c>
       <c r="O16">
-        <v>11.58988772849632</v>
+        <v>16.64534792000556</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.53707534974566</v>
+        <v>11.92100670038497</v>
       </c>
       <c r="C17">
-        <v>13.84844921811054</v>
+        <v>9.062682706472199</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.86636348826305</v>
+        <v>23.44815252346841</v>
       </c>
       <c r="F17">
-        <v>32.35904320220314</v>
+        <v>36.87250602954669</v>
       </c>
       <c r="G17">
-        <v>19.30505634429132</v>
+        <v>19.55515945829031</v>
       </c>
       <c r="H17">
-        <v>7.012958656836883</v>
+        <v>11.74254032796137</v>
       </c>
       <c r="I17">
-        <v>9.126518328765904</v>
+        <v>16.27522559382247</v>
       </c>
       <c r="J17">
-        <v>4.245652370816972</v>
+        <v>7.250499143072174</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.02376670042494</v>
+        <v>19.28988206133133</v>
       </c>
       <c r="N17">
-        <v>11.35808355663033</v>
+        <v>16.35200797519946</v>
       </c>
       <c r="O17">
-        <v>11.50901708922497</v>
+        <v>16.65864914876766</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.2993373644609</v>
+        <v>11.78926574281742</v>
       </c>
       <c r="C18">
-        <v>13.70406061321636</v>
+        <v>8.991229915151687</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.7144186371545</v>
+        <v>23.43264427775015</v>
       </c>
       <c r="F18">
-        <v>32.07070174561192</v>
+        <v>36.8397762859154</v>
       </c>
       <c r="G18">
-        <v>19.11564726792045</v>
+        <v>19.53524249076671</v>
       </c>
       <c r="H18">
-        <v>7.011273642385603</v>
+        <v>11.75045765204143</v>
       </c>
       <c r="I18">
-        <v>9.163292509915884</v>
+        <v>16.29575149270477</v>
       </c>
       <c r="J18">
-        <v>4.253289620741633</v>
+        <v>7.25309345440963</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.77223123179389</v>
+        <v>19.23428155859253</v>
       </c>
       <c r="N18">
-        <v>11.3717015503823</v>
+        <v>16.35866277752597</v>
       </c>
       <c r="O18">
-        <v>11.46380759404739</v>
+        <v>16.66673412868268</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.21821619901219</v>
+        <v>11.74429380966688</v>
       </c>
       <c r="C19">
-        <v>13.65483030938214</v>
+        <v>8.966887524217368</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.66294012976399</v>
+        <v>23.42747078367286</v>
       </c>
       <c r="F19">
-        <v>31.97302421020692</v>
+        <v>36.82885384613584</v>
       </c>
       <c r="G19">
-        <v>19.05161996131431</v>
+        <v>19.52863962911253</v>
       </c>
       <c r="H19">
-        <v>7.010818686891682</v>
+        <v>11.75317380322613</v>
       </c>
       <c r="I19">
-        <v>9.175961903992047</v>
+        <v>16.30276227079154</v>
       </c>
       <c r="J19">
-        <v>4.255884806771637</v>
+        <v>7.253978082214861</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.68641438932419</v>
+        <v>19.21546399145867</v>
       </c>
       <c r="N19">
-        <v>11.376381163738</v>
+        <v>16.36094362143177</v>
       </c>
       <c r="O19">
-        <v>11.44872340451015</v>
+        <v>16.66954610284662</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.58077752057668</v>
+        <v>11.9452147283434</v>
       </c>
       <c r="C20">
-        <v>13.8750092913535</v>
+        <v>9.075835583917302</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.89446878176744</v>
+        <v>23.45105941756684</v>
       </c>
       <c r="F20">
-        <v>32.41238334545823</v>
+        <v>36.878639069269</v>
       </c>
       <c r="G20">
-        <v>19.34015955732718</v>
+        <v>19.55891235340906</v>
       </c>
       <c r="H20">
-        <v>7.013325822719255</v>
+        <v>11.74109186612991</v>
       </c>
       <c r="I20">
-        <v>9.11981725377475</v>
+        <v>16.27145572105437</v>
       </c>
       <c r="J20">
-        <v>4.244243306416675</v>
+        <v>7.250021955954774</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.07001143585602</v>
+        <v>19.30017579789942</v>
       </c>
       <c r="N20">
-        <v>11.3555960371745</v>
+        <v>16.35078944678946</v>
       </c>
       <c r="O20">
-        <v>11.51749055000398</v>
+        <v>16.65718822571259</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.75538331319015</v>
+        <v>12.59473014400592</v>
       </c>
       <c r="C21">
-        <v>14.59083607946348</v>
+        <v>9.4312865654441</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.66964654480637</v>
+        <v>23.53565230716725</v>
       </c>
       <c r="F21">
-        <v>33.8841760849981</v>
+        <v>37.05688978749339</v>
       </c>
       <c r="G21">
-        <v>20.31608742651099</v>
+        <v>19.67033941691503</v>
       </c>
       <c r="H21">
-        <v>7.03004031714408</v>
+        <v>11.70296858240759</v>
       </c>
       <c r="I21">
-        <v>8.947182646121959</v>
+        <v>16.17052153402595</v>
       </c>
       <c r="J21">
-        <v>4.205767483586198</v>
+        <v>7.237162900774494</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.31385553133619</v>
+        <v>19.58511215871112</v>
       </c>
       <c r="N21">
-        <v>11.29066276763427</v>
+        <v>16.31859337353</v>
       </c>
       <c r="O21">
-        <v>11.76421338198056</v>
+        <v>16.62086408998126</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.49071004676912</v>
+        <v>13.00014639819475</v>
       </c>
       <c r="C22">
-        <v>15.04073840500469</v>
+        <v>9.655494021744353</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.17375827612927</v>
+        <v>23.59486623209357</v>
       </c>
       <c r="F22">
-        <v>34.84185941671875</v>
+        <v>37.18144314451914</v>
       </c>
       <c r="G22">
-        <v>20.95798280027475</v>
+        <v>19.75031099969173</v>
       </c>
       <c r="H22">
-        <v>7.047439727333757</v>
+        <v>11.67989647343763</v>
       </c>
       <c r="I22">
-        <v>8.847299614110721</v>
+        <v>16.10772862120386</v>
       </c>
       <c r="J22">
-        <v>4.181082250819938</v>
+        <v>7.22908030960917</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.09362801898188</v>
+        <v>19.77130578884243</v>
       </c>
       <c r="N22">
-        <v>11.25202085377023</v>
+        <v>16.29898004431226</v>
       </c>
       <c r="O22">
-        <v>11.93731401144237</v>
+        <v>16.60100983018034</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.10120369618839</v>
+        <v>12.78551556483945</v>
       </c>
       <c r="C23">
-        <v>14.80226186868249</v>
+        <v>9.53658340289452</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.9049616440249</v>
+        <v>23.56290669486823</v>
       </c>
       <c r="F23">
-        <v>34.33116548024579</v>
+        <v>37.11423804072591</v>
       </c>
       <c r="G23">
-        <v>20.61506250239942</v>
+        <v>19.70698109989951</v>
       </c>
       <c r="H23">
-        <v>7.03754181599593</v>
+        <v>11.69204164129074</v>
       </c>
       <c r="I23">
-        <v>8.899356597792938</v>
+        <v>16.1409517008592</v>
       </c>
       <c r="J23">
-        <v>4.19421600977135</v>
+        <v>7.233364793857302</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.68045722814583</v>
+        <v>19.67195021600246</v>
       </c>
       <c r="N23">
-        <v>11.272288016922</v>
+        <v>16.30931750025126</v>
       </c>
       <c r="O23">
-        <v>11.84383256581182</v>
+        <v>16.61125012414097</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.56103146542661</v>
+        <v>11.9342771171027</v>
       </c>
       <c r="C24">
-        <v>13.86300791172471</v>
+        <v>9.069892003483575</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.8817632362058</v>
+        <v>23.44974383508607</v>
       </c>
       <c r="F24">
-        <v>32.38826968544446</v>
+        <v>36.87586349127198</v>
       </c>
       <c r="G24">
-        <v>19.32428786974427</v>
+        <v>19.55721315471964</v>
       </c>
       <c r="H24">
-        <v>7.013157707157353</v>
+        <v>11.7417460611158</v>
       </c>
       <c r="I24">
-        <v>9.12284271408371</v>
+        <v>16.27315894426047</v>
       </c>
       <c r="J24">
-        <v>4.244880165571872</v>
+        <v>7.250237575609315</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.04911631694898</v>
+        <v>19.29552196117779</v>
       </c>
       <c r="N24">
-        <v>11.35671936604557</v>
+        <v>16.35133983325694</v>
       </c>
       <c r="O24">
-        <v>11.51365570140236</v>
+        <v>16.65784734509958</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.76018969145918</v>
+        <v>10.93445088847036</v>
       </c>
       <c r="C25">
-        <v>12.77356309773504</v>
+        <v>8.533087416318587</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.77065227245532</v>
+        <v>23.34486146271987</v>
       </c>
       <c r="F25">
-        <v>30.28107267136232</v>
+        <v>36.65411592715976</v>
       </c>
       <c r="G25">
-        <v>17.95469570969316</v>
+        <v>19.42691571504867</v>
       </c>
       <c r="H25">
-        <v>7.012737193468347</v>
+        <v>11.80325981446916</v>
       </c>
       <c r="I25">
-        <v>9.413114202413732</v>
+        <v>16.42936127384442</v>
       </c>
       <c r="J25">
-        <v>4.301601566754258</v>
+        <v>7.269825746733802</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.29496208104869</v>
+        <v>18.89108141967308</v>
       </c>
       <c r="N25">
-        <v>11.46318928871651</v>
+        <v>16.40281952965879</v>
       </c>
       <c r="O25">
-        <v>11.20718994326346</v>
+        <v>16.72470780444543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_187/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.12852665559538</v>
+        <v>17.31369951791336</v>
       </c>
       <c r="C2">
-        <v>8.110879165973371</v>
+        <v>11.90692716911362</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.28269436308833</v>
+        <v>16.95062426951795</v>
       </c>
       <c r="F2">
-        <v>36.52196271966533</v>
+        <v>28.72866218423396</v>
       </c>
       <c r="G2">
-        <v>19.35828909065191</v>
+        <v>16.9726034470668</v>
       </c>
       <c r="H2">
-        <v>11.85533369209589</v>
+        <v>7.032558958837972</v>
       </c>
       <c r="I2">
-        <v>16.55605497724123</v>
+        <v>9.662953912255045</v>
       </c>
       <c r="J2">
-        <v>7.285453413798845</v>
+        <v>4.345252036450362</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.5965221777066</v>
+        <v>17.00738137188172</v>
       </c>
       <c r="N2">
-        <v>16.44604009235571</v>
+        <v>11.55392365829343</v>
       </c>
       <c r="O2">
-        <v>16.78810679960771</v>
+        <v>11.02244791902693</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.539272179910361</v>
+        <v>16.25825244031451</v>
       </c>
       <c r="C3">
-        <v>7.809056561021271</v>
+        <v>11.28037790161916</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.25007201181097</v>
+        <v>16.39651054444074</v>
       </c>
       <c r="F3">
-        <v>36.45209059074492</v>
+        <v>27.68178204870132</v>
       </c>
       <c r="G3">
-        <v>19.32894353661445</v>
+        <v>16.32755912617642</v>
       </c>
       <c r="H3">
-        <v>11.8948484608195</v>
+        <v>7.057488282622719</v>
       </c>
       <c r="I3">
-        <v>16.649200368167</v>
+        <v>9.852119262497231</v>
       </c>
       <c r="J3">
-        <v>7.296801695172481</v>
+        <v>4.376060388695549</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.39985805283274</v>
+        <v>16.08705364798431</v>
       </c>
       <c r="N3">
-        <v>16.47866047993556</v>
+        <v>11.62270465260333</v>
       </c>
       <c r="O3">
-        <v>16.83985221119672</v>
+        <v>10.92156558265208</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.156458652415964</v>
+        <v>15.57328170427535</v>
       </c>
       <c r="C4">
-        <v>7.616458609050131</v>
+        <v>10.87682411974341</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.23476389172599</v>
+        <v>16.0581813736254</v>
       </c>
       <c r="F4">
-        <v>36.41897273321174</v>
+        <v>27.04381559310157</v>
       </c>
       <c r="G4">
-        <v>19.31940662598353</v>
+        <v>15.94313029531861</v>
       </c>
       <c r="H4">
-        <v>11.92119185267974</v>
+        <v>7.078117751743101</v>
       </c>
       <c r="I4">
-        <v>16.70998376579892</v>
+        <v>9.977280147127798</v>
       </c>
       <c r="J4">
-        <v>7.30414494233784</v>
+        <v>4.395596803948161</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.2808831577797</v>
+        <v>15.49968261365989</v>
       </c>
       <c r="N4">
-        <v>16.50033622415592</v>
+        <v>11.6684079234818</v>
       </c>
       <c r="O4">
-        <v>16.87593288402915</v>
+        <v>10.87113387398602</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.995224807120984</v>
+        <v>15.28490735504698</v>
       </c>
       <c r="C5">
-        <v>7.536222902750048</v>
+        <v>10.70772936390202</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.22971748874903</v>
+        <v>15.92096680886567</v>
       </c>
       <c r="F5">
-        <v>36.40794642498118</v>
+        <v>26.78542331633363</v>
       </c>
       <c r="G5">
-        <v>19.31765289771135</v>
+        <v>15.78963125867321</v>
       </c>
       <c r="H5">
-        <v>11.93244996353665</v>
+        <v>7.087812012097972</v>
       </c>
       <c r="I5">
-        <v>16.73565641587494</v>
+        <v>10.03044545701026</v>
       </c>
       <c r="J5">
-        <v>7.307232014639789</v>
+        <v>4.40371604048937</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.23289475766023</v>
+        <v>15.25495734655319</v>
       </c>
       <c r="N5">
-        <v>16.509583996592</v>
+        <v>11.68788793316655</v>
       </c>
       <c r="O5">
-        <v>16.89171618579537</v>
+        <v>10.8533962545412</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.968137597798076</v>
+        <v>15.23646632297867</v>
       </c>
       <c r="C6">
-        <v>7.52279661344385</v>
+        <v>10.6793741210165</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.22895162802262</v>
+        <v>15.89822758132157</v>
       </c>
       <c r="F6">
-        <v>36.40626488689711</v>
+        <v>26.74262444431513</v>
       </c>
       <c r="G6">
-        <v>19.3174904383367</v>
+        <v>15.7643404519348</v>
       </c>
       <c r="H6">
-        <v>11.93435093940455</v>
+        <v>7.089498033323396</v>
       </c>
       <c r="I6">
-        <v>16.7399738677442</v>
+        <v>10.03940116411001</v>
       </c>
       <c r="J6">
-        <v>7.307750344079555</v>
+        <v>4.405073835467565</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.22495758741701</v>
+        <v>15.2140046506763</v>
       </c>
       <c r="N6">
-        <v>16.51114465025293</v>
+        <v>11.6911737606337</v>
       </c>
       <c r="O6">
-        <v>16.89440212710339</v>
+        <v>10.85061835256321</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.154305315797938</v>
+        <v>15.56942994447614</v>
       </c>
       <c r="C7">
-        <v>7.615383497737158</v>
+        <v>10.87456230565819</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.23469100361573</v>
+        <v>16.05632794359396</v>
       </c>
       <c r="F7">
-        <v>36.41881401938204</v>
+        <v>27.04032390254976</v>
       </c>
       <c r="G7">
-        <v>19.31937434193008</v>
+        <v>15.94104705514055</v>
       </c>
       <c r="H7">
-        <v>11.92134156652139</v>
+        <v>7.078243345102625</v>
       </c>
       <c r="I7">
-        <v>16.71032634054042</v>
+        <v>9.977988533995369</v>
       </c>
       <c r="J7">
-        <v>7.30418619214688</v>
+        <v>4.395705660400806</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.28023390335077</v>
+        <v>15.49640354409684</v>
       </c>
       <c r="N7">
-        <v>16.50045926274891</v>
+        <v>11.66866719571725</v>
       </c>
       <c r="O7">
-        <v>16.87614137429989</v>
+        <v>10.870883378514</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.929737404303394</v>
+        <v>16.95746354874582</v>
       </c>
       <c r="C8">
-        <v>8.008366016982208</v>
+        <v>11.69485677050505</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.27046897117336</v>
+        <v>16.75927623207771</v>
       </c>
       <c r="F8">
-        <v>36.49584644942684</v>
+        <v>28.36691251255865</v>
       </c>
       <c r="G8">
-        <v>19.34641129557342</v>
+        <v>16.74791824267803</v>
       </c>
       <c r="H8">
-        <v>11.86852622482935</v>
+        <v>7.04001899290569</v>
       </c>
       <c r="I8">
-        <v>16.58742588048534</v>
+        <v>9.726241238874248</v>
       </c>
       <c r="J8">
-        <v>7.28928854867786</v>
+        <v>4.355747371668678</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.52837237048185</v>
+        <v>16.69480564739418</v>
       </c>
       <c r="N8">
-        <v>16.45694622308059</v>
+        <v>11.57690804954747</v>
       </c>
       <c r="O8">
-        <v>16.80505237554761</v>
+        <v>10.98522887748871</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.28212130982014</v>
+        <v>19.38551111051862</v>
       </c>
       <c r="C9">
-        <v>8.718231060261594</v>
+        <v>13.15066091435496</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.37786960830764</v>
+        <v>18.14556638270228</v>
       </c>
       <c r="F9">
-        <v>36.72402033148292</v>
+        <v>30.99170341771194</v>
       </c>
       <c r="G9">
-        <v>19.46658787488217</v>
+        <v>18.41245708427128</v>
       </c>
       <c r="H9">
-        <v>11.78148450662344</v>
+        <v>7.009609476319048</v>
       </c>
       <c r="I9">
-        <v>16.37492887477651</v>
+        <v>9.309338627550066</v>
       </c>
       <c r="J9">
-        <v>7.263040998315907</v>
+        <v>4.28220854821488</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.02694192289891</v>
+        <v>18.85990081316786</v>
       </c>
       <c r="N9">
-        <v>16.38465439585552</v>
+        <v>11.42535017028786</v>
       </c>
       <c r="O9">
-        <v>16.69997713618702</v>
+        <v>11.30393071308941</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.17175888851046</v>
+        <v>20.9900105430514</v>
       </c>
       <c r="C10">
-        <v>9.199262715964151</v>
+        <v>14.12398282027346</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.47912141544105</v>
+        <v>19.16024358562987</v>
       </c>
       <c r="F10">
-        <v>36.93781652280997</v>
+        <v>32.91686951644763</v>
       </c>
       <c r="G10">
-        <v>19.59542989970362</v>
+        <v>19.67312129885763</v>
       </c>
       <c r="H10">
-        <v>11.72763286763046</v>
+        <v>7.017639487890849</v>
       </c>
       <c r="I10">
-        <v>16.23620423255962</v>
+        <v>9.057992832489063</v>
       </c>
       <c r="J10">
-        <v>7.245549171606218</v>
+        <v>4.230970768843891</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.39765371191558</v>
+        <v>20.50315837122096</v>
       </c>
       <c r="N10">
-        <v>16.33945101481651</v>
+        <v>11.33254598189935</v>
       </c>
       <c r="O10">
-        <v>16.64388908915617</v>
+        <v>11.59929335727178</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.55375391694052</v>
+        <v>21.68115838196704</v>
       </c>
       <c r="C11">
-        <v>9.408722036711927</v>
+        <v>14.54549524708213</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.52994079183672</v>
+        <v>19.61955338594536</v>
       </c>
       <c r="F11">
-        <v>37.0448671119212</v>
+        <v>33.78903397489746</v>
       </c>
       <c r="G11">
-        <v>19.66270045701077</v>
+        <v>20.25259694731682</v>
       </c>
       <c r="H11">
-        <v>11.70533151160394</v>
+        <v>7.028585964379079</v>
       </c>
       <c r="I11">
-        <v>16.17687706771032</v>
+        <v>8.95763652503258</v>
       </c>
       <c r="J11">
-        <v>7.237977384389456</v>
+        <v>4.208233488419055</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.56664490057135</v>
+        <v>21.23519640319055</v>
       </c>
       <c r="N11">
-        <v>16.32059630804969</v>
+        <v>11.29465215061242</v>
       </c>
       <c r="O11">
-        <v>16.6229916180407</v>
+        <v>11.74753849255456</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.69513396790445</v>
+        <v>21.93732931422127</v>
       </c>
       <c r="C12">
-        <v>9.4866525757077</v>
+        <v>14.7020368679067</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.54985968812476</v>
+        <v>19.79305854455817</v>
       </c>
       <c r="F12">
-        <v>37.08678917569388</v>
+        <v>34.11859050613678</v>
       </c>
       <c r="G12">
-        <v>19.68940232908012</v>
+        <v>20.47273891835219</v>
       </c>
       <c r="H12">
-        <v>11.6972027391014</v>
+        <v>7.033837543503366</v>
       </c>
       <c r="I12">
-        <v>16.15495551876274</v>
+        <v>8.92183697563334</v>
       </c>
       <c r="J12">
-        <v>7.23516529591295</v>
+        <v>4.19970269508279</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.63063726797895</v>
+        <v>21.50670955565446</v>
       </c>
       <c r="N12">
-        <v>16.3137015879443</v>
+        <v>11.2809514001401</v>
       </c>
       <c r="O12">
-        <v>16.61574466800701</v>
+        <v>11.8057072639486</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.66483090602735</v>
+        <v>21.88240484675215</v>
       </c>
       <c r="C13">
-        <v>9.46993111901763</v>
+        <v>14.66845984362036</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.54553995336791</v>
+        <v>19.75571138890645</v>
       </c>
       <c r="F13">
-        <v>37.07769934700514</v>
+        <v>34.04764899587218</v>
       </c>
       <c r="G13">
-        <v>19.68359729428377</v>
+        <v>20.425298119662</v>
       </c>
       <c r="H13">
-        <v>11.69893934210593</v>
+        <v>7.032656398689506</v>
       </c>
       <c r="I13">
-        <v>16.1596524910436</v>
+        <v>8.929445810006738</v>
       </c>
       <c r="J13">
-        <v>7.235768478800725</v>
+        <v>4.201536472290454</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.61685622149109</v>
+        <v>21.4484863776099</v>
       </c>
       <c r="N13">
-        <v>16.31517559474603</v>
+        <v>11.28387279381293</v>
       </c>
       <c r="O13">
-        <v>16.61727574985672</v>
+        <v>11.79308873975041</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.5654509702307</v>
+        <v>21.7023448458065</v>
       </c>
       <c r="C14">
-        <v>9.415161441708051</v>
+        <v>14.55843574547431</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.53156606798358</v>
+        <v>19.63383678229698</v>
       </c>
       <c r="F14">
-        <v>37.04828846684964</v>
+        <v>33.81616205296024</v>
       </c>
       <c r="G14">
-        <v>19.66487273484424</v>
+        <v>20.27069477401902</v>
       </c>
       <c r="H14">
-        <v>11.704656411422</v>
+        <v>7.028995511613749</v>
       </c>
       <c r="I14">
-        <v>16.17506265353592</v>
+        <v>8.954645954385132</v>
       </c>
       <c r="J14">
-        <v>7.237744927523333</v>
+        <v>4.207530081726149</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.57190990265094</v>
+        <v>21.25764763648153</v>
       </c>
       <c r="N14">
-        <v>16.32002416520046</v>
+        <v>11.29351181634997</v>
       </c>
       <c r="O14">
-        <v>16.62238203664306</v>
+        <v>11.7522831809194</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.50415145466233</v>
+        <v>21.5913306022963</v>
       </c>
       <c r="C15">
-        <v>9.381431678450028</v>
+        <v>14.49064180998755</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.52309422332762</v>
+        <v>19.55912706267003</v>
       </c>
       <c r="F15">
-        <v>37.03045298300941</v>
+        <v>33.67427165216077</v>
       </c>
       <c r="G15">
-        <v>19.65356275800689</v>
+        <v>20.17608373680885</v>
       </c>
       <c r="H15">
-        <v>11.70819948283631</v>
+        <v>7.026898905299891</v>
       </c>
       <c r="I15">
-        <v>16.18457274248584</v>
+        <v>8.970374703708822</v>
       </c>
       <c r="J15">
-        <v>7.238962739179346</v>
+        <v>4.211211585132216</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.54437734482473</v>
+        <v>21.14001411782457</v>
       </c>
       <c r="N15">
-        <v>16.3230259642799</v>
+        <v>11.29950132816609</v>
       </c>
       <c r="O15">
-        <v>16.6255966486063</v>
+        <v>11.72755408751208</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.14633692828313</v>
+        <v>20.94406427281415</v>
       </c>
       <c r="C16">
-        <v>9.185382019075226</v>
+        <v>14.09600638728753</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.47589521204567</v>
+        <v>19.13017199467193</v>
       </c>
       <c r="F16">
-        <v>36.93101559063165</v>
+        <v>32.85978139041225</v>
       </c>
       <c r="G16">
-        <v>19.59120645419202</v>
+        <v>19.63535794125971</v>
       </c>
       <c r="H16">
-        <v>11.72913454474379</v>
+        <v>7.017075797123372</v>
       </c>
       <c r="I16">
-        <v>16.24015752762064</v>
+        <v>9.064848780416016</v>
       </c>
       <c r="J16">
-        <v>7.246051740104484</v>
+        <v>4.232467958895407</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.38661240450639</v>
+        <v>20.45451716396915</v>
       </c>
       <c r="N16">
-        <v>16.34071754830625</v>
+        <v>11.33511170700875</v>
       </c>
       <c r="O16">
-        <v>16.64534792000556</v>
+        <v>11.58988772849635</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.92100670038497</v>
+        <v>20.53707534974564</v>
       </c>
       <c r="C17">
-        <v>9.062682706472199</v>
+        <v>13.84844921811053</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.44815252346841</v>
+        <v>18.86636348826313</v>
       </c>
       <c r="F17">
-        <v>36.87250602954669</v>
+        <v>32.35904320220325</v>
       </c>
       <c r="G17">
-        <v>19.55515945829031</v>
+        <v>19.30505634429135</v>
       </c>
       <c r="H17">
-        <v>11.74254032796137</v>
+        <v>7.012958656836893</v>
       </c>
       <c r="I17">
-        <v>16.27522559382247</v>
+        <v>9.126518328765917</v>
       </c>
       <c r="J17">
-        <v>7.250499143072174</v>
+        <v>4.245652370816939</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.28988206133133</v>
+        <v>20.0237667004249</v>
       </c>
       <c r="N17">
-        <v>16.35200797519946</v>
+        <v>11.3580835566303</v>
       </c>
       <c r="O17">
-        <v>16.65864914876766</v>
+        <v>11.50901708922498</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.78926574281742</v>
+        <v>20.29933736446086</v>
       </c>
       <c r="C18">
-        <v>8.991229915151687</v>
+        <v>13.7040606132165</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.43264427775015</v>
+        <v>18.71441863715452</v>
       </c>
       <c r="F18">
-        <v>36.8397762859154</v>
+        <v>32.07070174561193</v>
       </c>
       <c r="G18">
-        <v>19.53524249076671</v>
+        <v>19.11564726792042</v>
       </c>
       <c r="H18">
-        <v>11.75045765204143</v>
+        <v>7.011273642385563</v>
       </c>
       <c r="I18">
-        <v>16.29575149270477</v>
+        <v>9.163292509915863</v>
       </c>
       <c r="J18">
-        <v>7.25309345440963</v>
+        <v>4.253289620741599</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.23428155859253</v>
+        <v>19.77223123179389</v>
       </c>
       <c r="N18">
-        <v>16.35866277752597</v>
+        <v>11.37170155038224</v>
       </c>
       <c r="O18">
-        <v>16.66673412868268</v>
+        <v>11.46380759404733</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.74429380966688</v>
+        <v>20.21821619901222</v>
       </c>
       <c r="C19">
-        <v>8.966887524217368</v>
+        <v>13.65483030938214</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.42747078367286</v>
+        <v>18.66294012976397</v>
       </c>
       <c r="F19">
-        <v>36.82885384613584</v>
+        <v>31.97302421020689</v>
       </c>
       <c r="G19">
-        <v>19.52863962911253</v>
+        <v>19.05161996131431</v>
       </c>
       <c r="H19">
-        <v>11.75317380322613</v>
+        <v>7.010818686891581</v>
       </c>
       <c r="I19">
-        <v>16.30276227079154</v>
+        <v>9.175961903992025</v>
       </c>
       <c r="J19">
-        <v>7.253978082214861</v>
+        <v>4.255884806771639</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.21546399145867</v>
+        <v>19.68641438932422</v>
       </c>
       <c r="N19">
-        <v>16.36094362143177</v>
+        <v>11.37638116373797</v>
       </c>
       <c r="O19">
-        <v>16.66954610284662</v>
+        <v>11.44872340451013</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.9452147283434</v>
+        <v>20.58077752057666</v>
       </c>
       <c r="C20">
-        <v>9.075835583917302</v>
+        <v>13.87500929135355</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.45105941756684</v>
+        <v>18.89446878176747</v>
       </c>
       <c r="F20">
-        <v>36.878639069269</v>
+        <v>32.41238334545827</v>
       </c>
       <c r="G20">
-        <v>19.55891235340906</v>
+        <v>19.34015955732719</v>
       </c>
       <c r="H20">
-        <v>11.74109186612991</v>
+        <v>7.013325822719255</v>
       </c>
       <c r="I20">
-        <v>16.27145572105437</v>
+        <v>9.119817253774757</v>
       </c>
       <c r="J20">
-        <v>7.250021955954774</v>
+        <v>4.244243306416676</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.30017579789942</v>
+        <v>20.07001143585597</v>
       </c>
       <c r="N20">
-        <v>16.35078944678946</v>
+        <v>11.35559603717449</v>
       </c>
       <c r="O20">
-        <v>16.65718822571259</v>
+        <v>11.51749055000399</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.59473014400592</v>
+        <v>21.75538331319014</v>
       </c>
       <c r="C21">
-        <v>9.4312865654441</v>
+        <v>14.59083607946345</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.53565230716725</v>
+        <v>19.66964654480637</v>
       </c>
       <c r="F21">
-        <v>37.05688978749339</v>
+        <v>33.88417608499816</v>
       </c>
       <c r="G21">
-        <v>19.67033941691503</v>
+        <v>20.31608742651104</v>
       </c>
       <c r="H21">
-        <v>11.70296858240759</v>
+        <v>7.030040317144186</v>
       </c>
       <c r="I21">
-        <v>16.17052153402595</v>
+        <v>8.947182646122089</v>
       </c>
       <c r="J21">
-        <v>7.237162900774494</v>
+        <v>4.205767483586231</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.58511215871112</v>
+        <v>21.31385553133615</v>
       </c>
       <c r="N21">
-        <v>16.31859337353</v>
+        <v>11.29066276763428</v>
       </c>
       <c r="O21">
-        <v>16.62086408998126</v>
+        <v>11.76421338198066</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.00014639819475</v>
+        <v>22.49071004676914</v>
       </c>
       <c r="C22">
-        <v>9.655494021744353</v>
+        <v>15.0407384050047</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.59486623209357</v>
+        <v>20.17375827612926</v>
       </c>
       <c r="F22">
-        <v>37.18144314451914</v>
+        <v>34.84185941671876</v>
       </c>
       <c r="G22">
-        <v>19.75031099969173</v>
+        <v>20.95798280027482</v>
       </c>
       <c r="H22">
-        <v>11.67989647343763</v>
+        <v>7.047439727333675</v>
       </c>
       <c r="I22">
-        <v>16.10772862120386</v>
+        <v>8.847299614110698</v>
       </c>
       <c r="J22">
-        <v>7.22908030960917</v>
+        <v>4.181082250819905</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.77130578884243</v>
+        <v>22.09362801898186</v>
       </c>
       <c r="N22">
-        <v>16.29898004431226</v>
+        <v>11.25202085377019</v>
       </c>
       <c r="O22">
-        <v>16.60100983018034</v>
+        <v>11.93731401144238</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.78551556483945</v>
+        <v>22.10120369618841</v>
       </c>
       <c r="C23">
-        <v>9.53658340289452</v>
+        <v>14.80226186868249</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.56290669486823</v>
+        <v>19.90496164402488</v>
       </c>
       <c r="F23">
-        <v>37.11423804072591</v>
+        <v>34.33116548024577</v>
       </c>
       <c r="G23">
-        <v>19.70698109989951</v>
+        <v>20.61506250239943</v>
       </c>
       <c r="H23">
-        <v>11.69204164129074</v>
+        <v>7.03754181599593</v>
       </c>
       <c r="I23">
-        <v>16.1409517008592</v>
+        <v>8.899356597792925</v>
       </c>
       <c r="J23">
-        <v>7.233364793857302</v>
+        <v>4.194216009771282</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.67195021600246</v>
+        <v>21.68045722814585</v>
       </c>
       <c r="N23">
-        <v>16.30931750025126</v>
+        <v>11.27228801692199</v>
       </c>
       <c r="O23">
-        <v>16.61125012414097</v>
+        <v>11.84383256581179</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.9342771171027</v>
+        <v>20.56103146542667</v>
       </c>
       <c r="C24">
-        <v>9.069892003483575</v>
+        <v>13.86300791172471</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.44974383508607</v>
+        <v>18.8817632362058</v>
       </c>
       <c r="F24">
-        <v>36.87586349127198</v>
+        <v>32.38826968544446</v>
       </c>
       <c r="G24">
-        <v>19.55721315471964</v>
+        <v>19.32428786974424</v>
       </c>
       <c r="H24">
-        <v>11.7417460611158</v>
+        <v>7.013157707157311</v>
       </c>
       <c r="I24">
-        <v>16.27315894426047</v>
+        <v>9.12284271408366</v>
       </c>
       <c r="J24">
-        <v>7.250237575609315</v>
+        <v>4.244880165571772</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.29552196117779</v>
+        <v>20.04911631694901</v>
       </c>
       <c r="N24">
-        <v>16.35133983325694</v>
+        <v>11.35671936604554</v>
       </c>
       <c r="O24">
-        <v>16.65784734509958</v>
+        <v>11.51365570140229</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.93445088847036</v>
+        <v>18.76018969145921</v>
       </c>
       <c r="C25">
-        <v>8.533087416318587</v>
+        <v>12.77356309773504</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.34486146271987</v>
+        <v>17.77065227245539</v>
       </c>
       <c r="F25">
-        <v>36.65411592715976</v>
+        <v>30.28107267136233</v>
       </c>
       <c r="G25">
-        <v>19.42691571504867</v>
+        <v>17.95469570969316</v>
       </c>
       <c r="H25">
-        <v>11.80325981446916</v>
+        <v>7.01273719346834</v>
       </c>
       <c r="I25">
-        <v>16.42936127384442</v>
+        <v>9.413114202413711</v>
       </c>
       <c r="J25">
-        <v>7.269825746733802</v>
+        <v>4.301601566754292</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.89108141967308</v>
+        <v>18.29496208104869</v>
       </c>
       <c r="N25">
-        <v>16.40281952965879</v>
+        <v>11.46318928871647</v>
       </c>
       <c r="O25">
-        <v>16.72470780444543</v>
+        <v>11.20718994326342</v>
       </c>
     </row>
   </sheetData>
